--- a/Tabelle_Metadaten.xlsx
+++ b/Tabelle_Metadaten.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22440"/>
+    <workbookView xWindow="38400" yWindow="4000" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="242">
   <si>
     <t>found by</t>
   </si>
@@ -442,9 +442,6 @@
     <t>08_E</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -506,6 +503,258 @@
   </si>
   <si>
     <t>Scarab Beetle</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>01_A_thumb.png</t>
+  </si>
+  <si>
+    <t>01_B_thumb.png</t>
+  </si>
+  <si>
+    <t>01_C_thumb.png</t>
+  </si>
+  <si>
+    <t>01_D_thumb.png</t>
+  </si>
+  <si>
+    <t>01_E_thumb.png</t>
+  </si>
+  <si>
+    <t>02_A_thumb.png</t>
+  </si>
+  <si>
+    <t>02_B_thumb.png</t>
+  </si>
+  <si>
+    <t>02_C_thumb.png</t>
+  </si>
+  <si>
+    <t>02_D_thumb.png</t>
+  </si>
+  <si>
+    <t>02_E_thumb.png</t>
+  </si>
+  <si>
+    <t>03_A_thumb.png</t>
+  </si>
+  <si>
+    <t>03_B_thumb.png</t>
+  </si>
+  <si>
+    <t>03_C_thumb.png</t>
+  </si>
+  <si>
+    <t>03_D_thumb.png</t>
+  </si>
+  <si>
+    <t>03_E_thumb.png</t>
+  </si>
+  <si>
+    <t>04_A_thumb.png</t>
+  </si>
+  <si>
+    <t>04_B_thumb.png</t>
+  </si>
+  <si>
+    <t>04_C_thumb.png</t>
+  </si>
+  <si>
+    <t>04_D_thumb.png</t>
+  </si>
+  <si>
+    <t>04_E_thumb.png</t>
+  </si>
+  <si>
+    <t>05_A_thumb.png</t>
+  </si>
+  <si>
+    <t>05_B_thumb.png</t>
+  </si>
+  <si>
+    <t>05_C_thumb.png</t>
+  </si>
+  <si>
+    <t>05_D_thumb.png</t>
+  </si>
+  <si>
+    <t>05_E_thumb.png</t>
+  </si>
+  <si>
+    <t>06_A_thumb.png</t>
+  </si>
+  <si>
+    <t>06_B_thumb.png</t>
+  </si>
+  <si>
+    <t>06_C_thumb.png</t>
+  </si>
+  <si>
+    <t>06_D_thumb.png</t>
+  </si>
+  <si>
+    <t>06_E_thumb.png</t>
+  </si>
+  <si>
+    <t>07_A_thumb.png</t>
+  </si>
+  <si>
+    <t>07_B_thumb.png</t>
+  </si>
+  <si>
+    <t>07_C_thumb.png</t>
+  </si>
+  <si>
+    <t>07_D_thumb.png</t>
+  </si>
+  <si>
+    <t>07_E_thumb.png</t>
+  </si>
+  <si>
+    <t>08_A_thumb.png</t>
+  </si>
+  <si>
+    <t>08_B_thumb.png</t>
+  </si>
+  <si>
+    <t>08_C_thumb.png</t>
+  </si>
+  <si>
+    <t>08_D_thumb.png</t>
+  </si>
+  <si>
+    <t>08_E_thumb.png</t>
+  </si>
+  <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>01_A_Brentidae_Brentinae_Cephalobarus_macrocephalus.png</t>
+  </si>
+  <si>
+    <t>01_B_Brentidae_Trachelizinae_Ithystenus_angustatus.png</t>
+  </si>
+  <si>
+    <t>01_C_Brentidae_Cyphagoginae_Calodromus_ito.png</t>
+  </si>
+  <si>
+    <t>01_D_Brentidae_Trachelizinae_Ischyromerus_madagascariensis.png</t>
+  </si>
+  <si>
+    <t>01_E_Brentidae_Taphroderinae_Bolbocranius_bicolor.png</t>
+  </si>
+  <si>
+    <t>02_A_Buprestidae_Julodinae_Julodis_clouei.png</t>
+  </si>
+  <si>
+    <t>02_B_Buprestidae_Julodinae_ulodis_euphratica.png</t>
+  </si>
+  <si>
+    <t>02_C_Buprestidae_Julodinae_Julodis_onopordi.png</t>
+  </si>
+  <si>
+    <t>02_D_Buprestidae_Julodinae_Sternocera_aurosignata.png</t>
+  </si>
+  <si>
+    <t>02_E_Buprestidae_Julodinae_Sternocera_chrysis.png</t>
+  </si>
+  <si>
+    <t>03_A_Carabidae_Anisodactylina_Allendia_chilenis.png</t>
+  </si>
+  <si>
+    <t>03_B_Carabidae_Brachininae_Pheropsophus_discicollis.png</t>
+  </si>
+  <si>
+    <t>03_C_Carabidae_Cicindelinae_Megacephala_quadrisignata.png</t>
+  </si>
+  <si>
+    <t>03_D_Carabidae_Ditomina_Pachycarus_cyaneus.png</t>
+  </si>
+  <si>
+    <t>03_E_Carabidae_Licininae_Chlaenius_coeruleus.png</t>
+  </si>
+  <si>
+    <t>04_A_Cerambycidae_Lamiinae_Agapanthia_irrorata.png</t>
+  </si>
+  <si>
+    <t>04_B_Cerambycidae_Lamiinae_Agapanthia_cardui.png</t>
+  </si>
+  <si>
+    <t>04_C_Cerambycidae_Lamiinae_Agapanthia_kirbyi.png</t>
+  </si>
+  <si>
+    <t>04_D_Cerambycidae_Lamiinae_Agapanthia_villosoviredescens.png</t>
+  </si>
+  <si>
+    <t>04_E_Cerambycidae_Lamiinae_Agapanthia_violacea.png</t>
+  </si>
+  <si>
+    <t>05_A_Chrysomelidae_Chrysomelinae_Crosita_altaica.png</t>
+  </si>
+  <si>
+    <t>05_B_Chrysomelidae_Chrysomelinae_Crosita_kowalewskyi.png</t>
+  </si>
+  <si>
+    <t>05_C_Chrysomelidae_Hispinae_Alurnus_humeralis.png</t>
+  </si>
+  <si>
+    <t>05_D_Chrysomelidae_Hispinae_Alurnus_ornatus.png</t>
+  </si>
+  <si>
+    <t>05_E_Chrysomelidae_Hispinae_Coraliomela_brunnea.png</t>
+  </si>
+  <si>
+    <t>06_A_Coccinellidae_Epilachninae_Afidenta_gyllenhali.png</t>
+  </si>
+  <si>
+    <t>06_B_Coccinellidae_Epilachninae_Epilachna_mexicana.png</t>
+  </si>
+  <si>
+    <t>06_C_Coccinellidae_Epilachninae_Epilachna_ovaloides.png</t>
+  </si>
+  <si>
+    <t>06_D_Coccinellidae_Epilachninae_Epilachna_flavofasciata.png</t>
+  </si>
+  <si>
+    <t>06_E_Coccinellidae_Epilachninae_Henosepilachna_amoena.png</t>
+  </si>
+  <si>
+    <t>07_A_Elateridae_Pyrophorinae_Alaus_oculatus.png</t>
+  </si>
+  <si>
+    <t>07_B_Elateridae_Pyrophorinae_Chalcolepidius_limbatus.png</t>
+  </si>
+  <si>
+    <t>07_C_Elateridae_Pyrophorinae_Chalcolepidius_lacordairii.png</t>
+  </si>
+  <si>
+    <t>07_D_Elateridae_Pyrophorinae_Abiphis_insignis.png</t>
+  </si>
+  <si>
+    <t>07_E_Elateridae_Pyrophorinae_Lanelater_fuscipes.png</t>
+  </si>
+  <si>
+    <t>08_A_Scarabaeidae_Cetoniinae_Pachnoda_discolor.png</t>
+  </si>
+  <si>
+    <t>08_B_Scarabaeidae_Cetoniinae_Pachnoda_stehelini.png</t>
+  </si>
+  <si>
+    <t>08_C_Scarabaeidae_Dynastinae_Chalcosoma_atlas.png</t>
+  </si>
+  <si>
+    <t>08_D_Scarabaeidae_Cetoniinae_Anisorrhina_laeviplaga.png</t>
+  </si>
+  <si>
+    <t>08_E_Scarabaeidae_Dynastinae_Eupatorus_gracilicornis.png</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
@@ -515,7 +764,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;-&quot;&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,16 +789,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Monaco"/>
+      <name val="Andale Mono"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -581,10 +823,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -903,975 +1144,1347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="11" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="21.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="78.5" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H12" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="I12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H13" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="I13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H14" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="I14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H15" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="I15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H16" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H17" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="I17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H18" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="I18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H19" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="I19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H20" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="I20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H21" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="I21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H22" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="I22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H23" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="I23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H24" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="I24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H25" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="I25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H26" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="I26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H27" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="I27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H28" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="I28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H29" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="I29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H30" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="I30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H31" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="I31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H32" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="I32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H33" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="I33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H34" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="I34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H35" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="I35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H36" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="I36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H37" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="I37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H38" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="I38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H39" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="I39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H40" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="I40" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H41" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" t="s">
-        <v>151</v>
-      </c>
-      <c r="G37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" t="s">
-        <v>151</v>
-      </c>
-      <c r="G38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" t="s">
-        <v>151</v>
-      </c>
-      <c r="G39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" t="s">
-        <v>151</v>
-      </c>
-      <c r="G40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" t="s">
-        <v>151</v>
-      </c>
-      <c r="G41" t="s">
-        <v>158</v>
+      <c r="I41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
